--- a/biology/Médecine/Muscle_petit_pectoral/Muscle_petit_pectoral.xlsx
+++ b/biology/Médecine/Muscle_petit_pectoral/Muscle_petit_pectoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle petit pectoral (Pectoralis Minor) est un muscle de ceinture du membre supérieur ou thoracique, appartenant au plan profond de la loge antérieure de l'épaule, situé sous le muscle grand pectoral. Il est également, de par son insertion, un muscle thoracique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle petit pectoral (Pectoralis Minor) est un muscle de ceinture du membre supérieur ou thoracique, appartenant au plan profond de la loge antérieure de l'épaule, situé sous le muscle grand pectoral. Il est également, de par son insertion, un muscle thoracique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle petit pectoral s'insère sur la face antérieure et le bord supérieur des 3e, 4e et 5e côtes, près du cartilage costal[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle petit pectoral s'insère sur la face antérieure et le bord supérieur des 3e, 4e et 5e côtes, près du cartilage costal.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des zones d'origines les fibres se réunissent en une lame musculaire triangulaire dont le sommet est situé en haut et en dehors pointant vers le processus coracoïde[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des zones d'origines les fibres se réunissent en une lame musculaire triangulaire dont le sommet est situé en haut et en dehors pointant vers le processus coracoïde.
 Il participe avec les muscles grand pectoral et subclavier à la paroi antérieure de la fosse axillaire.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle se termine sur le bord médial de la portion horizontale du processus coracoïde de la scapula[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle se termine sur le bord médial de la portion horizontale du processus coracoïde de la scapula.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est innervé par le nerf pectoral médial (racines C8-T1)[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervé par le nerf pectoral médial (racines C8-T1).
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Inspirateur profond accessoire (augmentation du volume thoracique).
 Plaque la scapula contre le gril costal (abducteur).
